--- a/2014/10/18/Mobile用户正常登录功能.xlsx
+++ b/2014/10/18/Mobile用户正常登录功能.xlsx
@@ -353,7 +353,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right/>
@@ -378,7 +378,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right>
         <color indexed="8"/>
       </right>
       <top style="medium">
@@ -2421,15 +2421,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
